--- a/meta/program/BlancoRestAutotestTask.xlsx
+++ b/meta/program/BlancoRestAutotestTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestAutotest/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD46A73-3295-2544-B2AA-50E0B9B57C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADA17D1-BE2A-6246-89BA-840E55A2121A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15740" yWindow="1120" windowWidth="22660" windowHeight="15620" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -276,6 +276,20 @@
   </si>
   <si>
     <t>BlancoRestAutotestのAntTaskです。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>outputJson</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>電文をJSONファイルとして出力します。</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">シュツリョク </t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -748,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -865,6 +879,24 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -884,24 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1338,10 +1353,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1387,10 +1402,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="6" t="s">
         <v>48</v>
       </c>
@@ -1400,10 +1415,10 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="58" t="s">
         <v>49</v>
       </c>
@@ -1414,10 +1429,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="6" t="s">
         <v>50</v>
       </c>
@@ -1428,10 +1443,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1463,38 +1478,38 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="44">
@@ -1531,12 +1546,12 @@
       <c r="E15" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="77"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="1:9" ht="26.25" customHeight="1">
       <c r="A16" s="51">
@@ -1552,12 +1567,12 @@
       <c r="E16" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="1:9" ht="26.25" customHeight="1">
       <c r="A17" s="51">
@@ -1571,12 +1586,12 @@
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="52"/>
-      <c r="F17" s="78" t="s">
+      <c r="F17" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="22">
@@ -1663,26 +1678,47 @@
       <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="22">
+        <v>7</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>22</v>
+      </c>
       <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
+      <c r="E22" s="56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="81" t="s">
+        <v>52</v>
+      </c>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1702,14 +1738,14 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F40" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D24" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C23" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoRestAutotestTask.xlsx
+++ b/meta/program/BlancoRestAutotestTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestAutotest/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADA17D1-BE2A-6246-89BA-840E55A2121A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E7145E-B10F-FC42-9A59-658611F30206}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15740" yWindow="1120" windowWidth="22660" windowHeight="15620" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -289,6 +289,38 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t xml:space="preserve">シュツリョク </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>searchTmpdir</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>import文作成のために検索するtmpディレクトリをカンマ区切りで指定します。指定ディレクトリ直下のvalueobjectディレクトリの下にxmlを探しにいきます。</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ケンサク </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">チョッカ </t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t xml:space="preserve">シタニ </t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t xml:space="preserve">サガシニ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -297,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -344,6 +376,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -377,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -758,11 +796,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -864,9 +915,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -879,6 +927,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -916,7 +965,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1353,10 +1409,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1534,6 +1590,7 @@
     </row>
     <row r="15" spans="1:9" ht="26.25" customHeight="1">
       <c r="A15" s="51">
+        <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="52" t="s">
@@ -1555,6 +1612,7 @@
     </row>
     <row r="16" spans="1:9" ht="26.25" customHeight="1">
       <c r="A16" s="51">
+        <f t="shared" ref="A16:A23" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="52" t="s">
@@ -1564,7 +1622,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="54"/>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="62" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="68" t="s">
@@ -1574,8 +1632,9 @@
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
     </row>
-    <row r="17" spans="1:9" ht="26.25" customHeight="1">
+    <row r="17" spans="1:10" ht="26.25" customHeight="1">
       <c r="A17" s="51">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B17" s="52" t="s">
@@ -1593,8 +1652,9 @@
       <c r="H17" s="72"/>
       <c r="I17" s="73"/>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="22">
+    <row r="18" spans="1:10">
+      <c r="A18" s="51">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B18" s="23" t="s">
@@ -1614,50 +1674,53 @@
       <c r="H18" s="26"/>
       <c r="I18" s="27"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="59">
+    <row r="19" spans="1:10">
+      <c r="A19" s="51">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="24"/>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="61" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="1:9" ht="25" customHeight="1">
-      <c r="A20" s="59">
+    <row r="20" spans="1:10" ht="25" customHeight="1">
+      <c r="A20" s="51">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="59" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="24"/>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="64" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" ht="90">
-      <c r="A21" s="22">
+    <row r="21" spans="1:10" ht="90">
+      <c r="A21" s="51">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -1667,19 +1730,20 @@
         <v>18</v>
       </c>
       <c r="D21" s="24"/>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="66" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="22">
-        <v>7</v>
+    <row r="22" spans="1:10">
+      <c r="A22" s="51">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>51</v>
@@ -1691,34 +1755,55 @@
       <c r="E22" s="56" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="67" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
+    <row r="23" spans="1:10" s="86" customFormat="1">
+      <c r="A23" s="51">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1737,16 +1822,20 @@
     <mergeCell ref="D12:D13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F40" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F41" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D24" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D22 D24:D25" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C25" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D23" xr:uid="{D484A972-DCA6-D44E-88AA-86CCC3417DB6}">
+      <formula1>必須</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.39375000000000004" header="0.51180555555555562" footer="0.11805555555555557"/>

--- a/meta/program/BlancoRestAutotestTask.xlsx
+++ b/meta/program/BlancoRestAutotestTask.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestAutotest/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E7145E-B10F-FC42-9A59-658611F30206}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBDE071-B0D3-404A-ADFA-D144F69255F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15740" yWindow="1120" windowWidth="22660" windowHeight="15620" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -322,6 +322,27 @@
     <rPh sb="75" eb="76">
       <t xml:space="preserve">サガシニ </t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>jsonDataDir</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Input / Expect データとして読み込むJSONファイルを配置する場所です。</t>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ヨミコム </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ハイチスル </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">バショ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>src/test/resources/json</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -813,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -928,43 +949,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,6 +957,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1409,10 +1432,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1458,10 +1481,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="6" t="s">
         <v>48</v>
       </c>
@@ -1471,10 +1494,10 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="74"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="58" t="s">
         <v>49</v>
       </c>
@@ -1485,10 +1508,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="6" t="s">
         <v>50</v>
       </c>
@@ -1499,10 +1522,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1534,38 +1557,38 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="44">
@@ -1603,16 +1626,16 @@
       <c r="E15" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="1:9" ht="26.25" customHeight="1">
       <c r="A16" s="51">
-        <f t="shared" ref="A16:A23" si="0">A15+1</f>
+        <f t="shared" ref="A16:A24" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="52" t="s">
@@ -1625,12 +1648,12 @@
       <c r="E16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="1:10" ht="26.25" customHeight="1">
       <c r="A17" s="51">
@@ -1645,12 +1668,12 @@
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="52"/>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="81"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="51">
@@ -1762,48 +1785,71 @@
       <c r="H22" s="26"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="1:10" s="86" customFormat="1">
+    <row r="23" spans="1:10" s="73" customFormat="1">
       <c r="A23" s="51">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="68" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84" t="s">
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
+    </row>
+    <row r="24" spans="1:10" s="73" customFormat="1">
+      <c r="A24" s="51">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="69"/>
+      <c r="E24" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1823,17 +1869,17 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F41" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D22 D24:D25" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D22 D25:D26" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C25" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C26" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D23" xr:uid="{D484A972-DCA6-D44E-88AA-86CCC3417DB6}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D23:D24" xr:uid="{D484A972-DCA6-D44E-88AA-86CCC3417DB6}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
